--- a/public/download/匯入申請人標準格式.xlsx
+++ b/public/download/匯入申請人標準格式.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yuan/projects/studentData/public/download/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,50 @@
   </si>
   <si>
     <t>身分證字號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王小明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東吳大學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨量資料學系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A123456789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市士林區臨溪路70號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(範例)EXAM_NUMBER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +457,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -470,7 +514,45 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="I2" s="2"/>
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2">
+        <v>32874</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2">
+        <v>987654321</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I3" s="2"/>

--- a/public/download/匯入申請人標準格式.xlsx
+++ b/public/download/匯入申請人標準格式.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yuan/projects/studentData/public/download/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2C6899-D1F4-1E49-8227-6A5E2CE683A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1300" windowWidth="18000" windowHeight="9760" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="1300" windowWidth="18000" windowHeight="9760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -128,19 +129,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -179,13 +180,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -453,14 +457,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
@@ -472,7 +476,7 @@
     <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -513,7 +517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -553,18 +557,6 @@
       <c r="M2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="I6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
